--- a/Test Data/TC_222_Verify_Cable_Capacitance_Based_On_Max_Allowed_IS_Units_for_Split_Loops.xlsx
+++ b/Test Data/TC_222_Verify_Cable_Capacitance_Based_On_Max_Allowed_IS_Units_for_Split_Loops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C35916B-CB29-43F6-A5A0-7DAFD5A7502B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AC1BDA-A1CA-40AA-83AA-AE65635633DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Color Codes</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>NGC-548/TC-222</t>
+  </si>
+  <si>
+    <t>Instrinsically Safe Unit Details</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A Intrinsically-safe Units</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,6 +528,9 @@
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -534,6 +543,9 @@
         <v>0</v>
       </c>
       <c r="D2" s="11"/>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
